--- a/data/income_statement/1digit/size/R_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/R_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>R-Arts, entertainment and recreation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>R-Arts, entertainment and recreation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,314 +841,354 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>257129.9380500001</v>
+        <v>275233.8929399999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>306677.758</v>
+        <v>328522.8921</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>385158.35149</v>
+        <v>411912.98423</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>403170.8590999999</v>
+        <v>437462.2804400001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>402309.15339</v>
+        <v>441201.43395</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>542376.17235</v>
+        <v>586155.91475</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>490881.3988700001</v>
+        <v>564828.52799</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>522944.37261</v>
+        <v>603203.34052</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>553252.9305</v>
+        <v>656181.56606</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1027575.15865</v>
+        <v>1122365.60661</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1181413.04993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1335980.40425</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1095722.397</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>240248.90849</v>
+        <v>257217.23854</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>287325.91661</v>
+        <v>308338.6837399999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>353663.47665</v>
+        <v>378819.13082</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>374612.87914</v>
+        <v>405930.30967</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>379875.25913</v>
+        <v>414714.98706</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>508242.6160600001</v>
+        <v>548576.2891800001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>464877.08919</v>
+        <v>531342.90478</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>490438.03448</v>
+        <v>562247.51451</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>522631.0116</v>
+        <v>613190.54072</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>949776.8331199999</v>
+        <v>1035243.70996</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1087576.28145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1227088.3748</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1004054.543</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4242.7637</v>
+        <v>4714.10704</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4207.05925</v>
+        <v>4297.04128</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>7238.64846</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>9071.151599999999</v>
+        <v>9376.68751</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6979.10829</v>
+        <v>7321.963369999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>13969.83735</v>
+        <v>14472.41065</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7252.229369999999</v>
+        <v>8982.750699999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>13161.69479</v>
+        <v>14796.24952</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8783.959429999999</v>
+        <v>11180.85829</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>33236.75883</v>
+        <v>38283.21586</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>34965.08806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>40327.20643999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>34643.356</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12638.26586</v>
+        <v>13302.54736</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15144.78214</v>
+        <v>15887.16708</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>24256.22638</v>
+        <v>25855.20495</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19486.82836</v>
+        <v>22155.28326</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15454.78597</v>
+        <v>19164.48352</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>20163.71894</v>
+        <v>23107.21492</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18752.08031</v>
+        <v>24502.87251</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>19344.64334</v>
+        <v>26159.57649</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>21837.95947</v>
+        <v>31810.16705</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>44561.5667</v>
+        <v>48838.68079</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>58871.68042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>68564.82301000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>57024.498</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>536.05489</v>
+        <v>562.12553</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>962.6840299999998</v>
+        <v>1286.49854</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1050.42959</v>
+        <v>1312.63877</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1201.93207</v>
+        <v>1344.67875</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1080.45038</v>
+        <v>1265.13958</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3938.33273</v>
+        <v>4082.35061</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1782.57468</v>
+        <v>2179.49378</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1065.35469</v>
+        <v>1221.7702</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1263.47761</v>
+        <v>6272.115280000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3107.04541</v>
+        <v>3644.43387</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6278.04561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6599.28224</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>50428.163</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>459.6258200000001</v>
+        <v>474.1168599999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>853.83266</v>
+        <v>1174.45436</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>875.6324</v>
+        <v>1136.37389</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1145.21431</v>
+        <v>1287.96099</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1047.62362</v>
+        <v>1231.07582</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1677.77328</v>
+        <v>1797.01903</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1493.3219</v>
+        <v>1841.60967</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>883.8068500000001</v>
+        <v>1038.93436</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1050.78169</v>
+        <v>5929.46366</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2471.23917</v>
+        <v>3008.62763</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3764.85249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3973.52112</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>49119.719</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>53.69812000000001</v>
+        <v>64.77772</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>84.84371</v>
+        <v>85.7572</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>149.30562</v>
+        <v>150.77331</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>46.92745</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>27.08521</v>
+        <v>28.32221</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>214.29663</v>
+        <v>215.43463</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>271.12341</v>
+        <v>319.4416200000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>134.83688</v>
+        <v>136.12488</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>98.86499999999999</v>
+        <v>228.7182</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>82.10799</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2386.18744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2498.75544</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1138.08</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>22.73095</v>
+        <v>23.23095</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>24.00766</v>
+        <v>26.28698</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>25.49157</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>9.79031</v>
+        <v>9.790310000000002</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>5.74155</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2046.26282</v>
+        <v>2069.89695</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>18.12937</v>
+        <v>18.44249</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>46.71096</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>113.83092</v>
+        <v>113.93342</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>553.69825</v>
@@ -1255,323 +1196,368 @@
       <c r="M12" s="48" t="n">
         <v>127.00568</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>170.364</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>256593.88316</v>
+        <v>274671.76741</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>305715.07397</v>
+        <v>327236.39356</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>384107.9219</v>
+        <v>410600.34546</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>401968.92703</v>
+        <v>436117.60169</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>401228.7030100001</v>
+        <v>439936.29437</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>538437.8396199999</v>
+        <v>582073.5641399999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>489098.82419</v>
+        <v>562649.0342100001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>521879.01792</v>
+        <v>601981.5703200001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>551989.4528900001</v>
+        <v>649909.45078</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1024468.11324</v>
+        <v>1118721.17274</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1175135.00432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1329381.12201</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1045294.234</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>178585.08513</v>
+        <v>192169.85745</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>214979.94401</v>
+        <v>233306.81193</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>266164.0532500001</v>
+        <v>284299.24768</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>267762.26515</v>
+        <v>289697.59338</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>285931.1384</v>
+        <v>311547.11877</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>358789.73761</v>
+        <v>389240.9773</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>343925.78726</v>
+        <v>393662.05859</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>368795.69265</v>
+        <v>424685.18108</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>401760.92325</v>
+        <v>479807.17349</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>791447.5912</v>
+        <v>851886.3948400001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>894573.83427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1009053.07637</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>821767.393</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6780.95751</v>
+        <v>7927.45933</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>6728.092130000001</v>
+        <v>7354.22388</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>7967.26634</v>
+        <v>9121.27284</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5609.14116</v>
+        <v>6785.63224</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>9730.25151</v>
+        <v>10574.41941</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>14606.07304</v>
+        <v>16422.5114</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9643.462660000001</v>
+        <v>13950.42381</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9050.81409</v>
+        <v>12957.37955</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>15517.18145</v>
+        <v>19418.5137</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>33615.35334</v>
+        <v>37403.63776000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>46124.87481999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>51962.9419</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>49467.311</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>73264.40264</v>
+        <v>76164.07081999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>76750.15187999999</v>
+        <v>79618.62214000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>84842.50038999999</v>
+        <v>88729.39479000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>105615.01441</v>
+        <v>109344.78102</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>99676.53215</v>
+        <v>105298.46032</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>146525.30142</v>
+        <v>151902.9286</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>108044.84604</v>
+        <v>121900.1968</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>133364.34728</v>
+        <v>148180.56776</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>147193.79874</v>
+        <v>162789.80059</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>298049.2909199999</v>
+        <v>313189.20546</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>309764.38999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>338264.69772</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>310233.615</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>97898.02592</v>
+        <v>107195.62824</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>130307.55113</v>
+        <v>145139.81704</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>171960.60844</v>
+        <v>185013.51871</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>153473.45389</v>
+        <v>170396.58343</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>174814.75993</v>
+        <v>193944.84423</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>196290.09521</v>
+        <v>219547.26936</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>222485.29385</v>
+        <v>253490.00871</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>221988.84021</v>
+        <v>258850.91685</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>236979.29658</v>
+        <v>294701.56476</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>455779.0565599999</v>
+        <v>497073.5346799999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>528834.74607</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>606118.72367</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>454659.771</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>641.69906</v>
+        <v>882.69906</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>1194.14887</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1393.67808</v>
+        <v>1435.06134</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3064.65569</v>
+        <v>3170.596689999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1709.59481</v>
+        <v>1729.39481</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>1368.26794</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3752.18471</v>
+        <v>4321.429270000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4391.69107</v>
+        <v>4696.31692</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2070.64648</v>
+        <v>2897.29444</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4003.89038</v>
+        <v>4220.01694</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9849.823390000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12706.71308</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7406.696</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>78008.79803000001</v>
+        <v>82501.90996</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>90735.12995999999</v>
+        <v>93929.58163</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>117943.86865</v>
+        <v>126301.09778</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>134206.66188</v>
+        <v>146420.00831</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>115297.56461</v>
+        <v>128389.1756</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>179648.10201</v>
+        <v>192832.58684</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>145173.03693</v>
+        <v>168986.97562</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>153083.32527</v>
+        <v>177296.38924</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>150228.52964</v>
+        <v>170102.27729</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>233020.52204</v>
+        <v>266834.7779</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>280561.17005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>320328.04564</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>223526.841</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>82794.84517</v>
+        <v>95820.93876999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>96593.02681</v>
+        <v>106738.4827</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>120186.10113</v>
+        <v>133834.9385</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>143242.17585</v>
+        <v>158145.42231</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>136096.28918</v>
+        <v>154376.48619</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>203088.2953</v>
+        <v>232766.8289</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>177949.33761</v>
+        <v>239351.50745</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>204618.99127</v>
+        <v>241555.04461</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>207793.61286</v>
+        <v>259255.31414</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>313535.7129</v>
+        <v>358922.64208</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>371510.7679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>429247.31443</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>393658.041</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>23.58579</v>
@@ -1583,7 +1569,7 @@
         <v>39.19145</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>245.24991</v>
+        <v>332.46931</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>810.2269100000001</v>
@@ -1595,7 +1581,7 @@
         <v>215.54606</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>38.77998</v>
+        <v>46.77998</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>6.5</v>
@@ -1604,169 +1590,194 @@
         <v>23.28972</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>0.14037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>62.83373</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>549.648</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8262.42993</v>
+        <v>9097.692949999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>9422.665210000001</v>
+        <v>10228.45446</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>10928.14052</v>
+        <v>11469.48433</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>11013.58341</v>
+        <v>11894.7132</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>13016.47136</v>
+        <v>14493.74719</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>16514.65257</v>
+        <v>17352.94874</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>18686.70823</v>
+        <v>20332.50661</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>19238.4559</v>
+        <v>20880.74485</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>15262.75703</v>
+        <v>19086.46362</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>30375.62301</v>
+        <v>33591.39090999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>30212.83723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>37042.74581</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>33127.228</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>74508.82945</v>
+        <v>86699.66003</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>87111.62843000001</v>
+        <v>96451.29506999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>109218.76916</v>
+        <v>122326.26272</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>131983.34253</v>
+        <v>145918.2398</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>122269.59091</v>
+        <v>139072.51209</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>186405.70208</v>
+        <v>215245.93951</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>159047.08332</v>
+        <v>218803.45478</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>185341.75539</v>
+        <v>220627.51978</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>192524.35583</v>
+        <v>240162.35052</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>283136.80017</v>
+        <v>325307.96145</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>341297.7903000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>392141.73489</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>359981.165</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-4786.047140000001</v>
+        <v>-13319.02881</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-5857.896850000002</v>
+        <v>-12808.90107</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2242.23248</v>
+        <v>-7533.84072</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-9035.513969999998</v>
+        <v>-11725.414</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-20798.72457</v>
+        <v>-25987.31059</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-23440.19329</v>
+        <v>-39934.24206</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-32776.30068</v>
+        <v>-70364.53182999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-51535.666</v>
+        <v>-64258.65537</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-57565.08322</v>
+        <v>-89153.03684999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-80515.19086</v>
+        <v>-92087.86417999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-90949.59784999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-108919.26879</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-170131.2</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5890.49578</v>
+        <v>51436.98974</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5146.08251</v>
+        <v>8519.669260000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5109.63616</v>
+        <v>15033.0172</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5167.477339999999</v>
+        <v>19262.95399</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8020.03667</v>
+        <v>51994.57211</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>9790.32027</v>
+        <v>57783.98116</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9963.945040000001</v>
+        <v>26257.20786</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>12381.18898</v>
+        <v>30501.35252</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>12026.37119</v>
+        <v>34854.68793</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>24783.4769</v>
+        <v>60051.62268000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>24762.13317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>65119.62276</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>80776.38499999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1.38389</v>
@@ -1781,10 +1792,10 @@
         <v>13.5335</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0.00752</v>
+        <v>395.09686</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>557.149</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>2e-05</v>
@@ -1793,19 +1804,24 @@
         <v>2e-05</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1.3</v>
+        <v>4316.13656</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0.30783</v>
+        <v>2833.2747</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0.1219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1270.93552</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1070.963</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>662.37629</v>
+        <v>2621.20068</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>947.70253</v>
+        <v>2699.75761</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>374.67807</v>
+        <v>3630.088940000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>341.63257</v>
+        <v>4134.65133</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>508.48605</v>
+        <v>8104.64739</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>645.5501800000001</v>
+        <v>8165.75206</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>723.32606</v>
+        <v>6112.300800000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>721.4896</v>
+        <v>6306.100570000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1006.48325</v>
+        <v>8177.06387</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2354.78121</v>
+        <v>7331.12125</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3014.9046</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7048.79844</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>7047.591</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1981.60327</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1162.77144</v>
+        <v>1909.94021</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1433.08199</v>
+        <v>1675.0568</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2746.80979</v>
+        <v>3015.38557</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4356.161230000001</v>
+        <v>4708.19078</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4822.14708</v>
+        <v>5161.19764</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4811.90966</v>
+        <v>5650.79884</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5590.616400000001</v>
+        <v>6147.85021</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>4810.449590000001</v>
+        <v>5713.297630000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6936.99653</v>
+        <v>7200.16282</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7054.27879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7597.98395</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>10161.857</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>26.40015</v>
+        <v>88.70218</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>109.425</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>189.24516</v>
+        <v>5028.520289999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>63.70478</v>
+        <v>4895.97991</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>353.2827</v>
+        <v>358.0027</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>151.49887</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>190.16135</v>
+        <v>255.42123</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>168.88279</v>
+        <v>254.66386</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>165.88961</v>
+        <v>407.4483299999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>213.2924</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>357.97973</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1640.3109</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>215.91</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>72.78293000000001</v>
+        <v>98.01427000000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>60.34711</v>
+        <v>64.99188000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>49.15282</v>
+        <v>55.0994</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>88.11802</v>
+        <v>318.77428</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>35.61186</v>
+        <v>54.83075</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>69.64545999999999</v>
+        <v>4132.14101</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>222.37419</v>
+        <v>297.2244200000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>108.17285</v>
+        <v>191.89365</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>104.27466</v>
+        <v>160.81448</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>280.66813</v>
+        <v>3213.327290000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>99.21104000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10442.55627</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>559.533</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>853.7796300000001</v>
+        <v>43495.63127000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>717.58578</v>
+        <v>1047.55783</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1130.23525</v>
+        <v>1856.86255</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>623.03601</v>
+        <v>3162.51014</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>935.27354</v>
+        <v>35671.46387000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1064.56446</v>
+        <v>26003.81077</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1350.65062</v>
+        <v>8495.91383</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1363.61114</v>
+        <v>10771.24053</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1542.05985</v>
+        <v>7480.359850000002</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7865.56009</v>
+        <v>21102.83439</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4106.36101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>17199.3887</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>40012.283</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1.7207</v>
+        <v>69.32126</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>24.9755</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.88756</v>
@@ -2111,169 +2162,194 @@
         <v>155.37024</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>234.49997</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2287.28206</v>
+        <v>3145.56662</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2136.47509</v>
+        <v>2676.22117</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1930.18575</v>
+        <v>2784.3321</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1208.11901</v>
+        <v>3639.5956</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1756.92935</v>
+        <v>2628.05534</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3009.80634</v>
+        <v>13585.32393</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2615.2454</v>
+        <v>5327.67042</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4332.22676</v>
+        <v>6733.41426</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4234.326359999999</v>
+        <v>8437.97934</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6972.00047</v>
+        <v>17997.73959</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10127.6061</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>19685.14901</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>21708.248</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3114.23873</v>
+        <v>4065.72058</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3731.84468</v>
+        <v>4130.4738</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6967.138110000001</v>
+        <v>8758.048989999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3146.35037</v>
+        <v>6284.870879999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2586.59405</v>
+        <v>38745.79275</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2338.43098</v>
+        <v>30696.29693</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2329.59988</v>
+        <v>10407.19272</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3647.15094</v>
+        <v>12963.56913</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2013.18954</v>
+        <v>13052.82493</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13390.80324</v>
+        <v>82987.3311</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8932.090600000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>40323.99469000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>25794.624</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>130.05205</v>
+        <v>160.62568</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>974.56405</v>
+        <v>1018.26145</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5020.021049999999</v>
+        <v>5024.1338</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1310.2917</v>
+        <v>1380.23131</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>97.00218000000001</v>
+        <v>148.44466</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>309.26449</v>
+        <v>339.76062</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>178.00765</v>
+        <v>203.16401</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>152.99236</v>
+        <v>191.37353</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>226.0806</v>
+        <v>298.8929</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>391.72027</v>
+        <v>586.18512</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>670.3056400000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>725.40281</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>871.422</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>187.74035</v>
+        <v>267.15582</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>660.2970799999999</v>
+        <v>667.8131500000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>68.89725999999999</v>
+        <v>68.89726</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>22.77272</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>361.11299</v>
+        <v>365.83299</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>117.50803</v>
+        <v>117.66283</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>421.51743</v>
+        <v>466.25634</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>637.31449</v>
+        <v>919.25042</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>56.1325</v>
+        <v>194.45411</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>309.7117</v>
+        <v>663.07128</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2961.344169999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4186.88908</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>759.548</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.04852</v>
@@ -2285,73 +2361,83 @@
         <v>2.13927</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>10.00038</v>
+        <v>22.66157</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>26.0154</v>
+        <v>26.2292</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>176.26945</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.008289999999999999</v>
+        <v>314.07425</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0.85926</v>
+        <v>450.84067</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.9901</v>
+        <v>4.430779999999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0.38479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>13.60784</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>25.941</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>741.1207899999999</v>
+        <v>1206.12149</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>643.6486900000001</v>
+        <v>827.83724</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>985.38289</v>
+        <v>2553.77657</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>400.82226</v>
+        <v>3237.65951</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1230.91325</v>
+        <v>36920.77264</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1017.74024</v>
+        <v>25242.33165</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>959.72775</v>
+        <v>6845.76934</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>814.5236499999999</v>
+        <v>9426.313199999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>727.7740900000001</v>
+        <v>10266.46649</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>11317.04469</v>
+        <v>78672.61507</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3190.67942</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>32833.20662999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>21009.55</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.00205</v>
@@ -2386,20 +2472,25 @@
       <c r="M41" s="48" t="n">
         <v>42.10548</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>149.402</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>7.179270000000001</v>
+        <v>7.179900000000001</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>3.91622</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>10.52479</v>
+        <v>10.52663</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>2.2527</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2046.0957</v>
+        <v>2422.58712</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1448.39128</v>
+        <v>1611.61838</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>880.1728499999999</v>
+        <v>1098.57546</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1400.21061</v>
+        <v>1619.29307</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>867.64472</v>
+        <v>1280.60775</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>714.4427800000001</v>
+        <v>4817.06639</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>757.58295</v>
+        <v>2565.17297</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2042.32044</v>
+        <v>2420.63198</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1002.34309</v>
+        <v>1842.17076</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1371.33628</v>
+        <v>3061.02865</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2067.2711</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2522.78285</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2978.761</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2402.72085</v>
+        <v>51099.16837</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1973.81628</v>
+        <v>3309.76185</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2364.07359</v>
+        <v>5423.54464</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2868.57589</v>
+        <v>4605.415480000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3357.437149999999</v>
+        <v>11574.68854</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3730.52397</v>
+        <v>10861.76567</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4283.28508</v>
+        <v>9080.29667</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5304.41111</v>
+        <v>9664.41884</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7006.586220000001</v>
+        <v>17519.64751</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>20563.30532</v>
+        <v>45326.33423000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>24739.93894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>38146.45464</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>40210.354</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2164.89211</v>
+        <v>5192.52784</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1900.3574</v>
+        <v>3236.30297</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2263.03756</v>
+        <v>5317.99895</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2805.28815</v>
+        <v>4508.22179</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3172.91318</v>
+        <v>11044.29583</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3504.11527</v>
+        <v>10424.01052</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4104.36875</v>
+        <v>8817.929269999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5055.974490000001</v>
+        <v>9367.778460000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6620.76804</v>
+        <v>16416.86422</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>20031.3593</v>
+        <v>41477.52329999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>24076.62372</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>36759.00276</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>39837.239</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>237.82874</v>
+        <v>45906.64053</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>73.45888000000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>101.03603</v>
+        <v>105.54569</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>63.28774000000001</v>
+        <v>97.19369</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>184.52397</v>
+        <v>530.39271</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>226.4087</v>
+        <v>437.75515</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>178.91633</v>
+        <v>262.3674</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>248.43662</v>
+        <v>296.64038</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>385.81818</v>
+        <v>1102.78329</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>531.94602</v>
+        <v>3848.81093</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>663.31522</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1387.45188</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>373.115</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-4412.51094</v>
+        <v>-17046.92802</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-6417.4753</v>
+        <v>-11729.46746</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-6463.808020000001</v>
+        <v>-6682.41715</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-9882.962890000001</v>
+        <v>-3352.74637</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-18722.7191</v>
+        <v>-24313.21977</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-19718.82797</v>
+        <v>-23708.3235</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-29425.2406</v>
+        <v>-63594.81336</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-48106.03907000001</v>
+        <v>-56385.29081999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-54558.48779</v>
+        <v>-84870.82136</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-89685.82252000002</v>
+        <v>-160349.90683</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-99859.49421999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-122270.09536</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-155359.793</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1490.6549</v>
+        <v>2220.64839</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1345.85952</v>
+        <v>2399.87299</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5221.2565</v>
+        <v>5937.028</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2839.1308</v>
+        <v>17138.07113</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3435.10436</v>
+        <v>5134.47363</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5763.9607</v>
+        <v>9333.597300000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6416.42655</v>
+        <v>8494.601199999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8803.83762</v>
+        <v>14523.43212</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9163.303879999999</v>
+        <v>11231.15742</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>20175.50032</v>
+        <v>24908.97813</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>19862.5058</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>74966.59693000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>37663.65</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3.98518</v>
+        <v>9.836979999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>6.5</v>
+        <v>7.78468</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>20.89135</v>
+        <v>31.47731</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>27.40521</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>203.51492</v>
+        <v>205.15135</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>18.13346</v>
+        <v>113.96158</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>309.27419</v>
+        <v>325.0123499999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>85.32061</v>
+        <v>85.3212</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>19.57496</v>
+        <v>19.91573</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>210.98255</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>42.18208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>138.64625</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>348.147</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1486.66972</v>
+        <v>2210.81141</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1339.35952</v>
+        <v>2392.08831</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5200.365150000001</v>
+        <v>5905.550689999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2811.72559</v>
+        <v>17110.66592</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3231.58944</v>
+        <v>4929.322279999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5745.827240000001</v>
+        <v>9219.635719999998</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6107.15236</v>
+        <v>8169.588849999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8718.51701</v>
+        <v>14438.11092</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9143.72892</v>
+        <v>11211.24169</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>19964.51777</v>
+        <v>24697.99558</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>19820.32372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>74827.95067999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>37315.503</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2902.7628</v>
+        <v>3929.89167</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3334.69408</v>
+        <v>5297.8409</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>24352.31054</v>
+        <v>30196.70815</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5159.73144</v>
+        <v>7477.49732</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5718.13769</v>
+        <v>7321.12543</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>16638.59541</v>
+        <v>23882.43829</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>10594.0415</v>
+        <v>17925.69042</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>19575.17493</v>
+        <v>32157.27648</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>36043.2339</v>
+        <v>40711.31408</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>31493.38807</v>
+        <v>42391.68006999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18994.20873</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23669.90909</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>26284.509</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4.99036</v>
+        <v>529.9598</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>0.02791</v>
+        <v>630.08203</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>141.6461</v>
+        <v>395.6632</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>29.21587</v>
+        <v>343.83598</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>147.94122</v>
+        <v>185.47519</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>44.45691</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>492.73224</v>
+        <v>498.29695</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>309.04893</v>
+        <v>622.84804</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>312.26007</v>
+        <v>312.27451</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>879.6432199999999</v>
+        <v>898.55026</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>765.2304499999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>788.30647</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1290.881</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>399.44799</v>
+        <v>428.83934</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>136.62816</v>
+        <v>286.27046</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>314.47448</v>
+        <v>428.30077</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>746.2506500000001</v>
+        <v>1989.69265</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>280.20267</v>
+        <v>424.58304</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>244.77033</v>
+        <v>256.00954</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1196.30135</v>
+        <v>1280.59523</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>206.05605</v>
+        <v>288.6956</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>108.5491</v>
+        <v>159.75684</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1497.60726</v>
+        <v>1731.98822</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>715.3905</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1565.03602</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2915.566</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2498.32445</v>
+        <v>2971.09253</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3198.03801</v>
+        <v>4381.48841</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>23896.18996</v>
+        <v>29372.74418</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4384.26492</v>
+        <v>5143.96869</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5289.9938</v>
+        <v>6711.0672</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>16349.36817</v>
+        <v>23581.97184</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>8905.00791</v>
+        <v>16146.79824</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>19060.06995</v>
+        <v>31245.73284</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>35622.42473</v>
+        <v>40239.28273000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>29116.13759</v>
+        <v>39761.14159000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>17513.58778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>21316.5666</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>22078.062</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-5824.61884</v>
+        <v>-18756.1713</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-8406.309859999999</v>
+        <v>-14627.43537</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-25594.86206</v>
+        <v>-30942.0973</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-12203.56353</v>
+        <v>6307.82744</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-21005.75243</v>
+        <v>-26499.87157</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-30593.46268</v>
+        <v>-38257.16449</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-33602.85555000001</v>
+        <v>-73025.90257999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-58877.37638000001</v>
+        <v>-74019.13518</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-81438.41781</v>
+        <v>-114350.97802</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-101003.71027</v>
+        <v>-177832.60877</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-98991.19715000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-70973.40751999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-143980.652</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2450.3606</v>
+        <v>2916.18804</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2826.81652</v>
+        <v>3604.74042</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3987.01685</v>
+        <v>4709.00829</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4021.47889</v>
+        <v>5128.07537</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4554.35639</v>
+        <v>5544.8514</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5470.758220000001</v>
+        <v>6940.631</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5296.73463</v>
+        <v>7012.697859999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5593.91509</v>
+        <v>7177.47883</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4969.95371</v>
+        <v>6975.11571</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10399.16216</v>
+        <v>13294.65673</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>12720.31016</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>16795.67987</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>19967.641</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-8274.979439999999</v>
+        <v>-21672.35934</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-11233.12638</v>
+        <v>-18232.17579</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-29581.87891</v>
+        <v>-35651.10559000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-16225.04242</v>
+        <v>1179.75207</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-25560.10882</v>
+        <v>-32044.72297</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-36064.2209</v>
+        <v>-45197.79549</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-38899.59018</v>
+        <v>-80038.60043999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-64471.29147</v>
+        <v>-81196.61401</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-86408.37152000002</v>
+        <v>-121326.09373</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-111402.87243</v>
+        <v>-191127.2655</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-111711.50731</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-87769.08739</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-163948.293</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2172</v>
+        <v>2239</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2261</v>
+        <v>2343</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2413</v>
+        <v>2518</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2429</v>
+        <v>2545</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2720</v>
+        <v>2872</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2867</v>
+        <v>3054</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2923</v>
+        <v>3190</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3065</v>
+        <v>3335</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3196</v>
+        <v>3534</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3627</v>
+        <v>3898</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3832</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4258</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>